--- a/reports/sla_fail/templates/xlsx/template.xlsx
+++ b/reports/sla_fail/templates/xlsx/template.xlsx
@@ -1,37 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esbar069618lt/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80754C6B-810D-284A-9DFE-6C7194656CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AD$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Request type</t>
+  </si>
+  <si>
+    <t>Awaiting for</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Customer contact</t>
+  </si>
+  <si>
+    <t>Customer Email</t>
+  </si>
+  <si>
+    <t>Tier 1 name</t>
+  </si>
+  <si>
+    <t>Tier 1 contact</t>
+  </si>
+  <si>
+    <t>Tier 1 email</t>
+  </si>
+  <si>
+    <t>Tier 2 name</t>
+  </si>
+  <si>
+    <t>Tier 2 contact</t>
+  </si>
+  <si>
+    <t>Tier 2 email</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>SLA zone</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Provider ID</t>
+  </si>
+  <si>
+    <t>Provider name</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Marketplace ID</t>
+  </si>
+  <si>
+    <t>Customer external ID</t>
+  </si>
+  <si>
+    <t>Tier 1 external ID</t>
+  </si>
+  <si>
+    <t>Tier 2 external ID</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,81 +154,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,18 +496,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="20.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="20.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.83203125" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="18.5" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="13" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AD1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <conditionalFormatting sqref="A2:AC1000000">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$AC2="GREEN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$AC2="YELLOW"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$AC2="RED"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reports/sla_fail/templates/xlsx/template.xlsx
+++ b/reports/sla_fail/templates/xlsx/template.xlsx
@@ -1,31 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esbar069618lt/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esbar069618lt/Library/CloudStorage/OneDrive-IngramMicro/Desktop/SLA Failure/sla_report_failure/reports/sla_fail/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80754C6B-810D-284A-9DFE-6C7194656CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA74FC-DECB-B847-A6DC-09B8460F12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{0044C792-5937-6B4E-A8D7-F8F19DE0705C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Customer Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Provider ID</t>
+  </si>
+  <si>
+    <t>Provider name</t>
+  </si>
+  <si>
+    <t>Request type</t>
+  </si>
+  <si>
+    <t>Awaiting for</t>
   </si>
   <si>
     <t>Creation date</t>
@@ -34,85 +74,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Request type</t>
-  </si>
-  <si>
-    <t>Awaiting for</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Assignee</t>
-  </si>
-  <si>
-    <t>Customer contact</t>
-  </si>
-  <si>
-    <t>Customer Email</t>
-  </si>
-  <si>
-    <t>Tier 1 name</t>
-  </si>
-  <si>
-    <t>Tier 1 contact</t>
-  </si>
-  <si>
-    <t>Tier 1 email</t>
-  </si>
-  <si>
-    <t>Tier 2 name</t>
-  </si>
-  <si>
-    <t>Tier 2 contact</t>
-  </si>
-  <si>
-    <t>Tier 2 email</t>
-  </si>
-  <si>
-    <t>Marketplace</t>
-  </si>
-  <si>
-    <t>SLA zone</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Vendor ID</t>
-  </si>
-  <si>
-    <t>Provider ID</t>
-  </si>
-  <si>
-    <t>Provider name</t>
-  </si>
-  <si>
-    <t>Customer ID</t>
-  </si>
-  <si>
-    <t>Marketplace ID</t>
-  </si>
-  <si>
-    <t>Customer external ID</t>
-  </si>
-  <si>
-    <t>Tier 1 external ID</t>
-  </si>
-  <si>
-    <t>Tier 2 external ID</t>
+    <t>SLA Zone</t>
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Jira Ticket</t>
+  </si>
+  <si>
+    <t>Jira Status</t>
   </si>
 </sst>
 </file>
@@ -121,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -200,7 +174,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -213,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -223,44 +197,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -287,14 +261,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -321,6 +313,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -332,178 +342,155 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EEF100-7988-CB48-ABD3-6339C2D33A60}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="20.83203125" style="3" customWidth="1" outlineLevel="1"/>
@@ -517,123 +504,71 @@
     <col min="10" max="10" width="18.5" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.33203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="15" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="13" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="11.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="76.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <conditionalFormatting sqref="A2:AC1000000">
+  <autoFilter ref="A1:P1" xr:uid="{62EEF100-7988-CB48-ABD3-6339C2D33A60}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Jira Status"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:O1000000">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$AC2="GREEN"</formula>
     </cfRule>
@@ -644,6 +579,6 @@
       <formula>$AC2="RED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>